--- a/biology/Biochimie/Natrémie/Natrémie.xlsx
+++ b/biology/Biochimie/Natrémie/Natrémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Natr%C3%A9mie</t>
+          <t>Natrémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La natrémie (de natrium (« sodium »), et -émie (de hémo-, « sang »)) est la concentration de sodium (Na) dans le plasma, elle témoigne de l'état d'hydratation du secteur intracellulaire (sauf cas particuliers). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Natr%C3%A9mie</t>
+          <t>Natrémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Régulation dans l'organisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La grandeur régulée par l'organisme est une concentration : l'osmolalité efficace. Le sodium étant l'élément contribuant majoritairement à la genèse de l'osmolalité efficace, on peut assimiler la régulation de celle-ci à la régulation de la natrémie. (on rappelle que l'osmolalité efficace doit être égale dans tous les compartiments de l'organisme)
 Ainsi on a dans l'organisme (formule valable pour chaque secteur) :
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Natr%C3%A9mie</t>
+          <t>Natrémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Cas particuliers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux cas où l'on observe une hyponatrémie associée à une déshydratation intracellulaire :
 L'apport d'une molécule osmotiquement active en grande quantité dans le secteur extracellulaire (glucose, mannitol, éthanol, méthanol, éthylène glycol)
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Natr%C3%A9mie</t>
+          <t>Natrémie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Utilisation clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La mesure de la natrémie est demandée en routine avec le ionogramme sanguin pour apprécier l'état de l'hydratation intracellulaire du patient.
 En aucun cas la natrémie n'est le reflet du stock de sodium de l'organisme, celui-ci est apprécié par l'état de l'hydratation extracellulaire du patient.
